--- a/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D681B7C0-5F7A-4AA2-AD8F-5D6992666CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C65B7C-557B-44C5-8117-1D903E0BD78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{181522BD-2372-4C6E-852F-58FA218BA004}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56F6493E-94AD-4A37-9255-9EA6F306EEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -86,757 +86,757 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>11,92%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>21,24%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>69,64%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE9AC65-8609-4467-BA79-94C124698455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CFC738-8E62-402C-AC6B-17275F44DBB0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,13 +1713,13 @@
         <v>46156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>51886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -1749,13 +1749,13 @@
         <v>66756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -1764,13 +1764,13 @@
         <v>118642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>350553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
@@ -1800,13 +1800,13 @@
         <v>378898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>588</v>
@@ -1815,13 +1815,13 @@
         <v>729451</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>41692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -1904,13 +1904,13 @@
         <v>42444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -1919,13 +1919,13 @@
         <v>84136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>39825</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -1955,13 +1955,13 @@
         <v>38430</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -1970,13 +1970,13 @@
         <v>78255</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +1991,13 @@
         <v>77401</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
@@ -2006,13 +2006,13 @@
         <v>124758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
@@ -2021,13 +2021,13 @@
         <v>202159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2042,13 @@
         <v>397362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>539</v>
@@ -2057,13 +2057,13 @@
         <v>377844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>932</v>
@@ -2072,13 +2072,13 @@
         <v>775205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2146,13 +2146,13 @@
         <v>53976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -2161,13 +2161,13 @@
         <v>74062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>156</v>
@@ -2176,13 +2176,13 @@
         <v>128039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2197,13 @@
         <v>58712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -2212,13 +2212,13 @@
         <v>94211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -2227,13 +2227,13 @@
         <v>152923</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2248,13 @@
         <v>123058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>255</v>
@@ -2263,13 +2263,13 @@
         <v>155827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>380</v>
@@ -2278,13 +2278,13 @@
         <v>278885</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2299,13 @@
         <v>488243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>636</v>
@@ -2314,13 +2314,13 @@
         <v>422754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>1067</v>
@@ -2329,13 +2329,13 @@
         <v>910997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2403,13 +2403,13 @@
         <v>67018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>135</v>
@@ -2418,13 +2418,13 @@
         <v>86661</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>209</v>
@@ -2460,7 +2460,7 @@
         <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -2469,13 +2469,13 @@
         <v>96661</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -2484,13 +2484,13 @@
         <v>137219</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>128170</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2520,13 +2520,13 @@
         <v>145346</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>416</v>
@@ -2535,13 +2535,13 @@
         <v>273516</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2556,13 @@
         <v>363334</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>439</v>
@@ -2571,13 +2571,13 @@
         <v>265633</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>832</v>
@@ -2586,13 +2586,13 @@
         <v>628967</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2660,13 +2660,13 @@
         <v>100761</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>290</v>
@@ -2675,13 +2675,13 @@
         <v>170797</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>439</v>
@@ -2690,13 +2690,13 @@
         <v>271558</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>81311</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -2795,10 +2795,10 @@
         <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2813,13 @@
         <v>355336</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>655</v>
@@ -2828,13 +2828,13 @@
         <v>467537</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>1172</v>
@@ -2843,13 +2843,13 @@
         <v>822873</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2917,13 +2917,13 @@
         <v>289816</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>615</v>
@@ -2932,13 +2932,13 @@
         <v>399141</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>937</v>
@@ -2947,13 +2947,13 @@
         <v>688958</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>244507</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>667</v>
@@ -2983,13 +2983,13 @@
         <v>417952</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>940</v>
@@ -2998,13 +2998,13 @@
         <v>662459</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3019,13 @@
         <v>569392</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>1285</v>
@@ -3034,13 +3034,13 @@
         <v>763848</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>1938</v>
@@ -3049,13 +3049,13 @@
         <v>1333241</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,10 +3070,10 @@
         <v>2279463</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>260</v>

--- a/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C65B7C-557B-44C5-8117-1D903E0BD78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D0A297-BA37-42DC-B03D-9ADD9FEA70B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56F6493E-94AD-4A37-9255-9EA6F306EEE4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{466F088C-616B-4A62-B2A4-4DF3C3FFE5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CFC738-8E62-402C-AC6B-17275F44DBB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768AE491-E0B8-4691-AB5C-2DE985066D94}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D0A297-BA37-42DC-B03D-9ADD9FEA70B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C3E0372-E92B-46F5-931D-0E822DC2A5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{466F088C-616B-4A62-B2A4-4DF3C3FFE5D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B05E41FD-81AF-42F7-98B6-58E4ACA23C87}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -86,16 +86,16 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,27%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,709 +134,709 @@
     <t>7,55%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
     <t>5,13%</t>
   </si>
   <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>12,01%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>21,24%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>69,64%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768AE491-E0B8-4691-AB5C-2DE985066D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC5A8D-412E-4069-9A45-BED46C797131}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,13 +1713,13 @@
         <v>46156</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>51886</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -1749,13 +1749,13 @@
         <v>66756</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -1764,13 +1764,13 @@
         <v>118642</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>350553</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
@@ -1800,13 +1800,13 @@
         <v>378898</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>588</v>
@@ -1815,13 +1815,13 @@
         <v>729451</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>41692</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -1904,13 +1904,13 @@
         <v>42444</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -1919,13 +1919,13 @@
         <v>84136</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>39825</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -1955,13 +1955,13 @@
         <v>38430</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -1970,13 +1970,13 @@
         <v>78255</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +1991,13 @@
         <v>77401</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
@@ -2006,13 +2006,13 @@
         <v>124758</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
@@ -2021,13 +2021,13 @@
         <v>202159</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2042,13 @@
         <v>397362</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>539</v>
@@ -2057,13 +2057,13 @@
         <v>377844</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>932</v>
@@ -2072,13 +2072,13 @@
         <v>775205</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2146,13 +2146,13 @@
         <v>53976</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -2161,13 +2161,13 @@
         <v>74062</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>156</v>
@@ -2176,13 +2176,13 @@
         <v>128039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2197,13 @@
         <v>58712</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -2212,13 +2212,13 @@
         <v>94211</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -2227,13 +2227,13 @@
         <v>152923</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2248,13 @@
         <v>123058</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>255</v>
@@ -2263,13 +2263,13 @@
         <v>155827</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>380</v>
@@ -2278,13 +2278,13 @@
         <v>278885</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2299,13 @@
         <v>488243</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>636</v>
@@ -2314,13 +2314,13 @@
         <v>422754</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>1067</v>
@@ -2329,13 +2329,13 @@
         <v>910997</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2403,13 +2403,13 @@
         <v>67018</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>135</v>
@@ -2418,13 +2418,13 @@
         <v>86661</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>209</v>
@@ -2460,7 +2460,7 @@
         <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -2469,13 +2469,13 @@
         <v>96661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -2484,13 +2484,13 @@
         <v>137219</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>128170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2520,13 +2520,13 @@
         <v>145346</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>416</v>
@@ -2535,13 +2535,13 @@
         <v>273516</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2556,13 @@
         <v>363334</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>439</v>
@@ -2571,13 +2571,13 @@
         <v>265633</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>832</v>
@@ -2586,13 +2586,13 @@
         <v>628967</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2660,13 +2660,13 @@
         <v>100761</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>290</v>
@@ -2675,13 +2675,13 @@
         <v>170797</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>439</v>
@@ -2690,13 +2690,13 @@
         <v>271558</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>81311</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -2795,10 +2795,10 @@
         <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2813,13 @@
         <v>355336</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>655</v>
@@ -2828,13 +2828,13 @@
         <v>467537</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>1172</v>
@@ -2843,13 +2843,13 @@
         <v>822873</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2917,13 +2917,13 @@
         <v>289816</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>615</v>
@@ -2932,13 +2932,13 @@
         <v>399141</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>937</v>
@@ -2947,13 +2947,13 @@
         <v>688958</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>244507</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>667</v>
@@ -2983,13 +2983,13 @@
         <v>417952</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>940</v>
@@ -2998,13 +2998,13 @@
         <v>662459</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3019,13 @@
         <v>569392</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>1285</v>
@@ -3034,13 +3034,13 @@
         <v>763848</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>1938</v>
@@ -3049,13 +3049,13 @@
         <v>1333241</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,10 +3070,10 @@
         <v>2279463</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>260</v>

--- a/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C3E0372-E92B-46F5-931D-0E822DC2A5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30465489-4270-4CC9-B36B-DD8F546C829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B05E41FD-81AF-42F7-98B6-58E4ACA23C87}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BC467B6-4E42-4657-883C-04A4E5B45B99}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="297">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,778 +65,865 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,8 +1338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC5A8D-412E-4069-9A45-BED46C797131}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08675C64-CC95-4993-9066-CAA1EEC4D1AC}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1372,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>14587</v>
+        <v>15523</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1387,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4235</v>
+        <v>3680</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1402,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>18822</v>
+        <v>19204</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1423,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>9926</v>
+        <v>10381</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1438,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>11704</v>
+        <v>9951</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1453,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>21630</v>
+        <v>20332</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1474,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>28531</v>
+        <v>27378</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1489,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>27823</v>
+        <v>23981</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1504,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>56354</v>
+        <v>51358</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1525,7 +1612,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="7">
-        <v>324636</v>
+        <v>346705</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1540,7 +1627,7 @@
         <v>181</v>
       </c>
       <c r="I7" s="7">
-        <v>311195</v>
+        <v>275588</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1555,7 +1642,7 @@
         <v>330</v>
       </c>
       <c r="N7" s="7">
-        <v>635831</v>
+        <v>622293</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1576,7 +1663,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1591,7 +1678,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1606,7 +1693,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1629,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>11782</v>
+        <v>11164</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1644,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>20942</v>
+        <v>18307</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1659,7 +1746,7 @@
         <v>26</v>
       </c>
       <c r="N9" s="7">
-        <v>32724</v>
+        <v>29471</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1680,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>14175</v>
+        <v>14644</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1695,7 +1782,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>31981</v>
+        <v>29414</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1710,16 +1797,16 @@
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>46156</v>
+        <v>44058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,46 +1818,46 @@
         <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>51886</v>
+        <v>50550</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
       </c>
       <c r="I11" s="7">
-        <v>66756</v>
+        <v>61203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
       </c>
       <c r="N11" s="7">
-        <v>118642</v>
+        <v>111753</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1869,46 @@
         <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>350553</v>
+        <v>347189</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
       </c>
       <c r="I12" s="7">
-        <v>378898</v>
+        <v>402580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>588</v>
       </c>
       <c r="N12" s="7">
-        <v>729451</v>
+        <v>749770</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1920,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1848,7 +1935,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1863,7 +1950,7 @@
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1877,7 +1964,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1886,10 +1973,10 @@
         <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>41692</v>
+        <v>38682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>89</v>
@@ -1901,31 +1988,31 @@
         <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>42444</v>
+        <v>39211</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>84136</v>
+        <v>77893</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +2024,46 @@
         <v>36</v>
       </c>
       <c r="D15" s="7">
-        <v>39825</v>
+        <v>38926</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>38430</v>
+        <v>35631</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>78255</v>
+        <v>74557</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,46 +2075,46 @@
         <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>77401</v>
+        <v>73514</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
       </c>
       <c r="I16" s="7">
-        <v>124758</v>
+        <v>114703</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
       </c>
       <c r="N16" s="7">
-        <v>202159</v>
+        <v>188217</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,46 +2126,46 @@
         <v>393</v>
       </c>
       <c r="D17" s="7">
-        <v>397362</v>
+        <v>384247</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>539</v>
       </c>
       <c r="I17" s="7">
-        <v>377844</v>
+        <v>352922</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>932</v>
       </c>
       <c r="N17" s="7">
-        <v>775205</v>
+        <v>737169</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2177,7 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>556280</v>
+        <v>535369</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2105,7 +2192,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2120,7 +2207,7 @@
         <v>1391</v>
       </c>
       <c r="N18" s="7">
-        <v>1139755</v>
+        <v>1077837</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2134,7 +2221,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2143,46 +2230,46 @@
         <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>53976</v>
+        <v>49986</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
       </c>
       <c r="I19" s="7">
-        <v>74062</v>
+        <v>66391</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>156</v>
       </c>
       <c r="N19" s="7">
-        <v>128039</v>
+        <v>116377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,46 +2281,46 @@
         <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>58712</v>
+        <v>57572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
       </c>
       <c r="I20" s="7">
-        <v>94211</v>
+        <v>86611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
       </c>
       <c r="N20" s="7">
-        <v>152923</v>
+        <v>144183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,46 +2332,46 @@
         <v>125</v>
       </c>
       <c r="D21" s="7">
-        <v>123058</v>
+        <v>114710</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>255</v>
       </c>
       <c r="I21" s="7">
-        <v>155827</v>
+        <v>143155</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>380</v>
       </c>
       <c r="N21" s="7">
-        <v>278885</v>
+        <v>257865</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,46 +2383,46 @@
         <v>431</v>
       </c>
       <c r="D22" s="7">
-        <v>488243</v>
+        <v>665519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>636</v>
       </c>
       <c r="I22" s="7">
-        <v>422754</v>
+        <v>416341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1067</v>
       </c>
       <c r="N22" s="7">
-        <v>910997</v>
+        <v>1081860</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,7 +2434,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2362,7 +2449,7 @@
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2377,7 +2464,7 @@
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2391,7 +2478,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2400,46 +2487,46 @@
         <v>74</v>
       </c>
       <c r="D24" s="7">
-        <v>67018</v>
+        <v>60227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>135</v>
       </c>
       <c r="I24" s="7">
-        <v>86661</v>
+        <v>77808</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>209</v>
       </c>
       <c r="N24" s="7">
-        <v>153679</v>
+        <v>138035</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,46 +2538,46 @@
         <v>44</v>
       </c>
       <c r="D25" s="7">
-        <v>40558</v>
+        <v>38213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
       </c>
       <c r="I25" s="7">
-        <v>96661</v>
+        <v>88498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
       </c>
       <c r="N25" s="7">
-        <v>137219</v>
+        <v>126711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,46 +2589,46 @@
         <v>151</v>
       </c>
       <c r="D26" s="7">
-        <v>128170</v>
+        <v>118587</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
       </c>
       <c r="I26" s="7">
-        <v>145346</v>
+        <v>133607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>416</v>
       </c>
       <c r="N26" s="7">
-        <v>273516</v>
+        <v>252194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,46 +2640,46 @@
         <v>393</v>
       </c>
       <c r="D27" s="7">
-        <v>363334</v>
+        <v>343178</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>439</v>
       </c>
       <c r="I27" s="7">
-        <v>265633</v>
+        <v>245653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>832</v>
       </c>
       <c r="N27" s="7">
-        <v>628967</v>
+        <v>588831</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2691,7 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2619,7 +2706,7 @@
         <v>1001</v>
       </c>
       <c r="I28" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2634,7 +2721,7 @@
         <v>1663</v>
       </c>
       <c r="N28" s="7">
-        <v>1193381</v>
+        <v>1105770</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2648,55 +2735,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="D29" s="7">
-        <v>100761</v>
+        <v>43633</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="7">
+        <v>125</v>
+      </c>
+      <c r="I29" s="7">
+        <v>65080</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>197</v>
+      </c>
+      <c r="N29" s="7">
+        <v>108713</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="7">
-        <v>290</v>
-      </c>
-      <c r="I29" s="7">
-        <v>170797</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M29" s="7">
-        <v>439</v>
-      </c>
-      <c r="N29" s="7">
-        <v>271558</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,49 +2792,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D30" s="7">
-        <v>81311</v>
+        <v>30642</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="7">
+        <v>124</v>
+      </c>
+      <c r="I30" s="7">
+        <v>59505</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" s="7">
+        <v>170</v>
+      </c>
+      <c r="N30" s="7">
+        <v>90147</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="7">
-        <v>273</v>
-      </c>
-      <c r="I30" s="7">
-        <v>144965</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M30" s="7">
-        <v>393</v>
-      </c>
-      <c r="N30" s="7">
-        <v>226276</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,49 +2843,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="D31" s="7">
-        <v>160347</v>
+        <v>85619</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="7">
+        <v>228</v>
+      </c>
+      <c r="I31" s="7">
+        <v>104862</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M31" s="7">
+        <v>363</v>
+      </c>
+      <c r="N31" s="7">
+        <v>190481</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="7">
-        <v>490</v>
-      </c>
-      <c r="I31" s="7">
-        <v>243338</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M31" s="7">
-        <v>732</v>
-      </c>
-      <c r="N31" s="7">
-        <v>403685</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,49 +2894,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>517</v>
+        <v>317</v>
       </c>
       <c r="D32" s="7">
-        <v>355336</v>
+        <v>208271</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="7">
+        <v>350</v>
+      </c>
+      <c r="I32" s="7">
+        <v>378920</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" s="7">
+        <v>667</v>
+      </c>
+      <c r="N32" s="7">
+        <v>587191</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H32" s="7">
-        <v>655</v>
-      </c>
-      <c r="I32" s="7">
-        <v>467537</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1172</v>
-      </c>
-      <c r="N32" s="7">
-        <v>822873</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,10 +2945,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2873,10 +2960,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2888,10 +2975,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2905,55 +2992,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="D34" s="7">
-        <v>289816</v>
+        <v>46758</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="7">
+        <v>165</v>
+      </c>
+      <c r="I34" s="7">
+        <v>83736</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>242</v>
+      </c>
+      <c r="N34" s="7">
+        <v>130494</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H34" s="7">
-        <v>615</v>
-      </c>
-      <c r="I34" s="7">
-        <v>399141</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M34" s="7">
-        <v>937</v>
-      </c>
-      <c r="N34" s="7">
-        <v>688958</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,49 +3049,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7">
-        <v>244507</v>
+        <v>43979</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="7">
+        <v>149</v>
+      </c>
+      <c r="I35" s="7">
+        <v>70673</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M35" s="7">
+        <v>223</v>
+      </c>
+      <c r="N35" s="7">
+        <v>114652</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="H35" s="7">
-        <v>667</v>
-      </c>
-      <c r="I35" s="7">
-        <v>417952</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M35" s="7">
-        <v>940</v>
-      </c>
-      <c r="N35" s="7">
-        <v>662459</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,49 +3100,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>653</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7">
-        <v>569392</v>
+        <v>63056</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="7">
+        <v>262</v>
+      </c>
+      <c r="I36" s="7">
+        <v>117049</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>369</v>
+      </c>
+      <c r="N36" s="7">
+        <v>180105</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H36" s="7">
-        <v>1285</v>
-      </c>
-      <c r="I36" s="7">
-        <v>763848</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1938</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1333241</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,49 +3151,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>2126</v>
+        <v>200</v>
       </c>
       <c r="D37" s="7">
-        <v>2279463</v>
+        <v>128966</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="7">
+        <v>305</v>
+      </c>
+      <c r="I37" s="7">
+        <v>154373</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>505</v>
+      </c>
+      <c r="N37" s="7">
+        <v>283339</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H37" s="7">
-        <v>2795</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2223860</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4921</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4503323</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,63 +3202,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>322</v>
+      </c>
+      <c r="D39" s="7">
+        <v>265973</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="7">
+        <v>615</v>
+      </c>
+      <c r="I39" s="7">
+        <v>354214</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" s="7">
+        <v>937</v>
+      </c>
+      <c r="N39" s="7">
+        <v>620187</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>273</v>
+      </c>
+      <c r="D40" s="7">
+        <v>234357</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" s="7">
+        <v>667</v>
+      </c>
+      <c r="I40" s="7">
+        <v>380283</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" s="7">
+        <v>940</v>
+      </c>
+      <c r="N40" s="7">
+        <v>614640</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>653</v>
+      </c>
+      <c r="D41" s="7">
+        <v>533412</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1285</v>
+      </c>
+      <c r="I41" s="7">
+        <v>698561</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1938</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1231973</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2126</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2424076</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2795</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2226377</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4921</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4650453</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3374</v>
       </c>
-      <c r="D38" s="7">
-        <v>3383178</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3457818</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5362</v>
       </c>
-      <c r="I38" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3659435</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8736</v>
       </c>
-      <c r="N38" s="7">
-        <v>7187980</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>267</v>
+      <c r="N43" s="7">
+        <v>7117253</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023</t>
+          <t>Poblacion según la frecuencia con la que se despierta demasiado temprano de forma involuntaria en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
